--- a/NewNutrientData.xlsx
+++ b/NewNutrientData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleycarreiro/Documents/Thesis Research/Data Analysis/Thesis Data Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleycarreiro/Documents/GitHub/SCTLD_Nutrient_Manuscript/Data Analysis/Thesis Data Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F7A2DB-0C7E-4F4D-84B3-598895183705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433D27C5-1FA0-8F48-B935-7682FB830AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8600" yWindow="3180" windowWidth="27240" windowHeight="16440" xr2:uid="{BA5FFA06-CAB8-4F4D-AB01-763597CC6B37}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -70,9 +70,6 @@
     <t>1hr</t>
   </si>
   <si>
-    <t>Pre-Treatment</t>
-  </si>
-  <si>
     <t>1 Day</t>
   </si>
   <si>
@@ -80,63 +77,6 @@
   </si>
   <si>
     <t>5 Day</t>
-  </si>
-  <si>
-    <t>2 cm</t>
-  </si>
-  <si>
-    <t>5 cm</t>
-  </si>
-  <si>
-    <t>2-3 cm</t>
-  </si>
-  <si>
-    <t>4 cm</t>
-  </si>
-  <si>
-    <t>5 cm btw nails</t>
-  </si>
-  <si>
-    <t>Facing bag w/ picture</t>
-  </si>
-  <si>
-    <t>Close to coral</t>
-  </si>
-  <si>
-    <t>1 m above bottom</t>
-  </si>
-  <si>
-    <t>4-5 cm</t>
-  </si>
-  <si>
-    <t>Above coral 5-10 cm</t>
-  </si>
-  <si>
-    <t>Above turf</t>
-  </si>
-  <si>
-    <t>Took nearby nutrient pieces</t>
-  </si>
-  <si>
-    <t>Above Coral/algae</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>More similar to nutrient samples</t>
-  </si>
-  <si>
-    <t>Nutrient bag broke, took near nutrient pellets</t>
-  </si>
-  <si>
-    <t>Some south current</t>
-  </si>
-  <si>
-    <t>Distance</t>
-  </si>
-  <si>
-    <t>Pre-Amendment</t>
   </si>
   <si>
     <t>NH4</t>
@@ -569,16 +509,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D72D0F-6E53-7248-95D8-2A1DDE020CFC}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -596,14 +537,8 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -617,17 +552,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F2" s="6">
         <v>34.215000000000003</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -641,17 +572,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F3" s="6">
         <v>1.048</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -665,17 +592,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F4" s="6">
         <v>12.221</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -689,17 +612,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F5" s="6">
         <v>0.66400000000000003</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -713,17 +632,13 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6">
         <v>6.7480000000000002</v>
       </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -737,14 +652,13 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F7" s="6">
         <v>0.62</v>
       </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -755,17 +669,16 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F8" s="6">
         <v>0.40500000000000003</v>
       </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -776,17 +689,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F9" s="6">
         <v>0.66700000000000004</v>
       </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -797,17 +709,16 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F10" s="6">
         <v>0.65700000000000003</v>
       </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -818,17 +729,16 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F11" s="6">
         <v>0.34</v>
       </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -839,19 +749,16 @@
         <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F12" s="6">
         <v>0.68700000000000006</v>
       </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -862,19 +769,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F13" s="6">
         <v>1.6359999999999999</v>
       </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -885,19 +789,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F14" s="6">
         <v>0.79500000000000004</v>
       </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -908,19 +809,16 @@
         <v>9</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F15" s="6">
         <v>0.27500000000000002</v>
       </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -931,19 +829,16 @@
         <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F16" s="6">
         <v>1.905</v>
       </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -954,16 +849,16 @@
         <v>8</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F17" s="6">
         <v>0.17299999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -974,19 +869,16 @@
         <v>8</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F18" s="6">
         <v>0.35499999999999998</v>
       </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -997,16 +889,16 @@
         <v>8</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F19" s="6">
         <v>1.262</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1017,16 +909,16 @@
         <v>8</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F20" s="6">
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1037,19 +929,16 @@
         <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F21" s="6">
         <v>0.78200000000000003</v>
       </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1060,19 +949,16 @@
         <v>9</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F22" s="6">
         <v>1.8049999999999999</v>
       </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1083,19 +969,16 @@
         <v>9</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F23" s="6">
         <v>0.70399999999999996</v>
       </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1106,19 +989,16 @@
         <v>9</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F24" s="6">
         <v>0.80200000000000005</v>
       </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1129,19 +1009,16 @@
         <v>9</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F25" s="6">
         <v>0.80700000000000005</v>
       </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1152,19 +1029,16 @@
         <v>9</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F26" s="6">
         <v>0.64500000000000002</v>
       </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1175,19 +1049,16 @@
         <v>8</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F27" s="6">
         <v>0.69199999999999995</v>
       </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1198,19 +1069,16 @@
         <v>8</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F28" s="6">
         <v>0.52500000000000002</v>
       </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1221,19 +1089,16 @@
         <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F29" s="6">
         <v>0.64200000000000002</v>
       </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1244,19 +1109,16 @@
         <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F30" s="6">
         <v>0.76500000000000001</v>
       </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1267,22 +1129,16 @@
         <v>8</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F31" s="6">
         <v>1.036</v>
       </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1293,22 +1149,16 @@
         <v>9</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F32" s="6">
         <v>0.53400000000000003</v>
       </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1319,22 +1169,16 @@
         <v>9</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F33" s="6">
         <v>0.36</v>
       </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1345,22 +1189,16 @@
         <v>9</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F34" s="6">
         <v>0.84499999999999997</v>
       </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1371,22 +1209,16 @@
         <v>9</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F35" s="6">
         <v>0.68100000000000005</v>
       </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1397,22 +1229,16 @@
         <v>9</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F36" s="6">
         <v>0.73399999999999999</v>
       </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1423,22 +1249,16 @@
         <v>8</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F37" s="6">
         <v>0.46100000000000002</v>
       </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1449,22 +1269,16 @@
         <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F38" s="6">
         <v>0.47899999999999998</v>
       </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1475,22 +1289,16 @@
         <v>8</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F39" s="6">
         <v>0.44900000000000001</v>
       </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1501,22 +1309,16 @@
         <v>8</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F40" s="6">
         <v>0.79700000000000004</v>
       </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1527,22 +1329,16 @@
         <v>8</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F41" s="6">
         <v>0.48899999999999999</v>
       </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -1561,11 +1357,8 @@
       <c r="F42" s="7">
         <v>3.7492000000000001</v>
       </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -1584,11 +1377,8 @@
       <c r="F43" s="7">
         <v>0.9738</v>
       </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>3</v>
       </c>
@@ -1607,11 +1397,8 @@
       <c r="F44" s="7">
         <v>1.3249</v>
       </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -1630,11 +1417,8 @@
       <c r="F45" s="7">
         <v>9.4799999999999995E-2</v>
       </c>
-      <c r="G45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>5</v>
       </c>
@@ -1653,11 +1437,8 @@
       <c r="F46" s="7">
         <v>0.82040000000000002</v>
       </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -1668,7 +1449,7 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>6</v>
@@ -1677,7 +1458,7 @@
         <v>6.93E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>7</v>
       </c>
@@ -1688,7 +1469,7 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>6</v>
@@ -1697,7 +1478,7 @@
         <v>0.2301</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>8</v>
       </c>
@@ -1708,7 +1489,7 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>6</v>
@@ -1717,7 +1498,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>9</v>
       </c>
@@ -1728,7 +1509,7 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>6</v>
@@ -1737,7 +1518,7 @@
         <v>0.1016</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>10</v>
       </c>
@@ -1748,7 +1529,7 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>6</v>
@@ -1757,7 +1538,7 @@
         <v>0.1123</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>11</v>
       </c>
@@ -1768,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>6</v>
@@ -1776,11 +1557,8 @@
       <c r="F52" s="7">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>12</v>
       </c>
@@ -1791,7 +1569,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>6</v>
@@ -1799,11 +1577,8 @@
       <c r="F53" s="7">
         <v>0.20230000000000001</v>
       </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>13</v>
       </c>
@@ -1814,7 +1589,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>6</v>
@@ -1822,11 +1597,8 @@
       <c r="F54" s="7">
         <v>0.1032</v>
       </c>
-      <c r="G54" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>14</v>
       </c>
@@ -1837,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>6</v>
@@ -1845,11 +1617,8 @@
       <c r="F55" s="7">
         <v>0.10680000000000001</v>
       </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>15</v>
       </c>
@@ -1860,7 +1629,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>6</v>
@@ -1868,11 +1637,8 @@
       <c r="F56" s="7">
         <v>0.22520000000000001</v>
       </c>
-      <c r="G56" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>16</v>
       </c>
@@ -1883,7 +1649,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>6</v>
@@ -1892,7 +1658,7 @@
         <v>8.1900000000000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>17</v>
       </c>
@@ -1903,7 +1669,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>6</v>
@@ -1911,11 +1677,8 @@
       <c r="F58" s="7">
         <v>0.53139999999999998</v>
       </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>18</v>
       </c>
@@ -1926,7 +1689,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>6</v>
@@ -1935,7 +1698,7 @@
         <v>0.1052</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>19</v>
       </c>
@@ -1946,7 +1709,7 @@
         <v>8</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>6</v>
@@ -1955,7 +1718,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>20</v>
       </c>
@@ -1966,7 +1729,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>6</v>
@@ -1974,11 +1737,8 @@
       <c r="F61" s="7">
         <v>0.11840000000000001</v>
       </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>21</v>
       </c>
@@ -1989,7 +1749,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>6</v>
@@ -1997,11 +1757,8 @@
       <c r="F62" s="7">
         <v>0.13170000000000001</v>
       </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>22</v>
       </c>
@@ -2012,7 +1769,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>6</v>
@@ -2020,11 +1777,8 @@
       <c r="F63" s="7">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>23</v>
       </c>
@@ -2035,7 +1789,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>6</v>
@@ -2043,11 +1797,8 @@
       <c r="F64" s="7">
         <v>0.13200000000000001</v>
       </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>24</v>
       </c>
@@ -2058,7 +1809,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>6</v>
@@ -2066,11 +1817,8 @@
       <c r="F65" s="7">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="G65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>25</v>
       </c>
@@ -2081,7 +1829,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>6</v>
@@ -2089,11 +1837,8 @@
       <c r="F66" s="7">
         <v>0.1</v>
       </c>
-      <c r="G66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>26</v>
       </c>
@@ -2104,7 +1849,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>6</v>
@@ -2112,11 +1857,8 @@
       <c r="F67" s="7">
         <v>6.2799999999999995E-2</v>
       </c>
-      <c r="G67" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>27</v>
       </c>
@@ -2127,7 +1869,7 @@
         <v>8</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>6</v>
@@ -2135,11 +1877,8 @@
       <c r="F68" s="7">
         <v>8.5400000000000004E-2</v>
       </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>28</v>
       </c>
@@ -2150,7 +1889,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>6</v>
@@ -2158,11 +1897,8 @@
       <c r="F69" s="7">
         <v>7.22E-2</v>
       </c>
-      <c r="G69" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>29</v>
       </c>
@@ -2173,7 +1909,7 @@
         <v>8</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>6</v>
@@ -2181,11 +1917,8 @@
       <c r="F70" s="7">
         <v>0.1172</v>
       </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>30</v>
       </c>
@@ -2196,7 +1929,7 @@
         <v>8</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>6</v>
@@ -2204,11 +1937,8 @@
       <c r="F71" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>31</v>
       </c>
@@ -2219,7 +1949,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>6</v>
@@ -2227,11 +1957,8 @@
       <c r="F72" s="7">
         <v>7.0900000000000005E-2</v>
       </c>
-      <c r="G72" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>32</v>
       </c>
@@ -2242,7 +1969,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>6</v>
@@ -2250,11 +1977,8 @@
       <c r="F73" s="7">
         <v>6.8900000000000003E-2</v>
       </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>33</v>
       </c>
@@ -2265,7 +1989,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>6</v>
@@ -2273,11 +1997,8 @@
       <c r="F74" s="7">
         <v>6.8900000000000003E-2</v>
       </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>34</v>
       </c>
@@ -2288,7 +2009,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>6</v>
@@ -2296,11 +2017,8 @@
       <c r="F75" s="7">
         <v>8.09E-2</v>
       </c>
-      <c r="G75" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>35</v>
       </c>
@@ -2311,7 +2029,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>6</v>
@@ -2319,11 +2037,8 @@
       <c r="F76" s="7">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="G76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>36</v>
       </c>
@@ -2334,7 +2049,7 @@
         <v>8</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>6</v>
@@ -2342,11 +2057,8 @@
       <c r="F77" s="7">
         <v>9.0899999999999995E-2</v>
       </c>
-      <c r="G77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>37</v>
       </c>
@@ -2357,7 +2069,7 @@
         <v>8</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>6</v>
@@ -2365,11 +2077,8 @@
       <c r="F78" s="7">
         <v>7.9299999999999995E-2</v>
       </c>
-      <c r="G78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>38</v>
       </c>
@@ -2380,7 +2089,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>6</v>
@@ -2388,11 +2097,8 @@
       <c r="F79" s="7">
         <v>7.3099999999999998E-2</v>
       </c>
-      <c r="G79" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>39</v>
       </c>
@@ -2403,7 +2109,7 @@
         <v>8</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>6</v>
@@ -2411,11 +2117,8 @@
       <c r="F80" s="7">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="G80" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>40</v>
       </c>
@@ -2426,7 +2129,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>6</v>
@@ -2434,11 +2137,8 @@
       <c r="F81" s="7">
         <v>0.1162</v>
       </c>
-      <c r="G81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>1</v>
       </c>
@@ -2457,11 +2157,8 @@
       <c r="F82" s="8">
         <v>36.72</v>
       </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>2</v>
       </c>
@@ -2480,11 +2177,8 @@
       <c r="F83" s="8">
         <v>3.3</v>
       </c>
-      <c r="G83" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>3</v>
       </c>
@@ -2503,11 +2197,8 @@
       <c r="F84" s="8">
         <v>16.43</v>
       </c>
-      <c r="G84" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>4</v>
       </c>
@@ -2526,11 +2217,8 @@
       <c r="F85" s="3">
         <v>0.91</v>
       </c>
-      <c r="G85" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>5</v>
       </c>
@@ -2549,11 +2237,8 @@
       <c r="F86" s="8">
         <v>9.57</v>
       </c>
-      <c r="G86" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>6</v>
       </c>
@@ -2564,7 +2249,7 @@
         <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>7</v>
@@ -2573,7 +2258,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>7</v>
       </c>
@@ -2584,7 +2269,7 @@
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>7</v>
@@ -2593,7 +2278,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>8</v>
       </c>
@@ -2604,7 +2289,7 @@
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>7</v>
@@ -2613,7 +2298,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>9</v>
       </c>
@@ -2624,7 +2309,7 @@
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>7</v>
@@ -2633,7 +2318,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>10</v>
       </c>
@@ -2644,7 +2329,7 @@
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>7</v>
@@ -2653,7 +2338,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>11</v>
       </c>
@@ -2664,7 +2349,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>7</v>
@@ -2672,11 +2357,8 @@
       <c r="F92" s="3">
         <v>0.36</v>
       </c>
-      <c r="G92" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>12</v>
       </c>
@@ -2687,7 +2369,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>7</v>
@@ -2695,11 +2377,8 @@
       <c r="F93" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G93" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>13</v>
       </c>
@@ -2710,7 +2389,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>7</v>
@@ -2718,11 +2397,8 @@
       <c r="F94" s="8">
         <v>1</v>
       </c>
-      <c r="G94" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>14</v>
       </c>
@@ -2733,7 +2409,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>7</v>
@@ -2741,11 +2417,8 @@
       <c r="F95" s="8">
         <v>0.41</v>
       </c>
-      <c r="G95" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>15</v>
       </c>
@@ -2756,7 +2429,7 @@
         <v>9</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>7</v>
@@ -2764,11 +2437,8 @@
       <c r="F96" s="8">
         <v>2.54</v>
       </c>
-      <c r="G96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>16</v>
       </c>
@@ -2779,7 +2449,7 @@
         <v>8</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>7</v>
@@ -2788,7 +2458,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>17</v>
       </c>
@@ -2799,7 +2469,7 @@
         <v>8</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>7</v>
@@ -2807,11 +2477,8 @@
       <c r="F98" s="8">
         <v>1.41</v>
       </c>
-      <c r="G98" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>18</v>
       </c>
@@ -2822,7 +2489,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>7</v>
@@ -2831,7 +2498,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>19</v>
       </c>
@@ -2842,7 +2509,7 @@
         <v>8</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>7</v>
@@ -2851,7 +2518,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>20</v>
       </c>
@@ -2862,7 +2529,7 @@
         <v>8</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>7</v>
@@ -2870,11 +2537,8 @@
       <c r="F101" s="8">
         <v>0.49</v>
       </c>
-      <c r="G101" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>21</v>
       </c>
@@ -2885,7 +2549,7 @@
         <v>9</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>7</v>
@@ -2893,11 +2557,8 @@
       <c r="F102" s="8">
         <v>0.91</v>
       </c>
-      <c r="G102" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>22</v>
       </c>
@@ -2908,7 +2569,7 @@
         <v>9</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>7</v>
@@ -2916,11 +2577,8 @@
       <c r="F103" s="8">
         <v>0.73</v>
       </c>
-      <c r="G103" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>23</v>
       </c>
@@ -2931,7 +2589,7 @@
         <v>9</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>7</v>
@@ -2939,11 +2597,8 @@
       <c r="F104" s="8">
         <v>1.83</v>
       </c>
-      <c r="G104" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>24</v>
       </c>
@@ -2954,7 +2609,7 @@
         <v>9</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>7</v>
@@ -2962,11 +2617,8 @@
       <c r="F105" s="8">
         <v>0.87</v>
       </c>
-      <c r="G105" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>25</v>
       </c>
@@ -2977,7 +2629,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>7</v>
@@ -2985,11 +2637,8 @@
       <c r="F106" s="8">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G106" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>26</v>
       </c>
@@ -3000,7 +2649,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>7</v>
@@ -3008,11 +2657,8 @@
       <c r="F107" s="8">
         <v>0.66</v>
       </c>
-      <c r="G107" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>27</v>
       </c>
@@ -3023,7 +2669,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>7</v>
@@ -3031,11 +2677,8 @@
       <c r="F108" s="8">
         <v>0.66</v>
       </c>
-      <c r="G108" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>28</v>
       </c>
@@ -3046,7 +2689,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>7</v>
@@ -3054,11 +2697,8 @@
       <c r="F109" s="8">
         <v>0.85</v>
       </c>
-      <c r="G109" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>29</v>
       </c>
@@ -3069,7 +2709,7 @@
         <v>8</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>7</v>
@@ -3077,11 +2717,8 @@
       <c r="F110" s="8">
         <v>1.71</v>
       </c>
-      <c r="G110" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>30</v>
       </c>
@@ -3092,7 +2729,7 @@
         <v>8</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>7</v>
@@ -3100,11 +2737,8 @@
       <c r="F111" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>31</v>
       </c>
@@ -3115,7 +2749,7 @@
         <v>9</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>7</v>
@@ -3123,11 +2757,8 @@
       <c r="F112" s="8">
         <v>0.6</v>
       </c>
-      <c r="G112" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>32</v>
       </c>
@@ -3138,7 +2769,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>7</v>
@@ -3146,11 +2777,8 @@
       <c r="F113" s="8">
         <v>1.01</v>
       </c>
-      <c r="G113" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>33</v>
       </c>
@@ -3161,7 +2789,7 @@
         <v>9</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>7</v>
@@ -3169,11 +2797,8 @@
       <c r="F114" s="8">
         <v>1.36</v>
       </c>
-      <c r="G114" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>34</v>
       </c>
@@ -3184,7 +2809,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>7</v>
@@ -3192,11 +2817,8 @@
       <c r="F115" s="8">
         <v>1.25</v>
       </c>
-      <c r="G115" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>35</v>
       </c>
@@ -3207,7 +2829,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>7</v>
@@ -3215,11 +2837,8 @@
       <c r="F116" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G116" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>36</v>
       </c>
@@ -3230,7 +2849,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>7</v>
@@ -3238,11 +2857,8 @@
       <c r="F117" s="8">
         <v>0.72</v>
       </c>
-      <c r="G117" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>37</v>
       </c>
@@ -3253,7 +2869,7 @@
         <v>8</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>7</v>
@@ -3261,11 +2877,8 @@
       <c r="F118" s="8">
         <v>0.48</v>
       </c>
-      <c r="G118" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>38</v>
       </c>
@@ -3276,7 +2889,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>7</v>
@@ -3284,11 +2897,8 @@
       <c r="F119" s="8">
         <v>1.01</v>
       </c>
-      <c r="G119" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>39</v>
       </c>
@@ -3299,7 +2909,7 @@
         <v>8</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>7</v>
@@ -3307,11 +2917,8 @@
       <c r="F120" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G120" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>40</v>
       </c>
@@ -3322,16 +2929,13 @@
         <v>8</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F121" s="8">
         <v>0.82</v>
-      </c>
-      <c r="G121" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
